--- a/biology/Médecine/Centre_hospitalier_intercommunal_André-Grégoire/Centre_hospitalier_intercommunal_André-Grégoire.xlsx
+++ b/biology/Médecine/Centre_hospitalier_intercommunal_André-Grégoire/Centre_hospitalier_intercommunal_André-Grégoire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Centre_hospitalier_intercommunal_Andr%C3%A9-Gr%C3%A9goire</t>
+          <t>Centre_hospitalier_intercommunal_André-Grégoire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le centre hospitalier intercommunal André-Grégoire est situé à Montreuil (Seine-Saint-Denis). Comme tous les hôpitaux intercommunaux d'Île-de-France, il est indépendant de l'Assistance publique - Hôpitaux de Paris.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Centre_hospitalier_intercommunal_Andr%C3%A9-Gr%C3%A9goire</t>
+          <t>Centre_hospitalier_intercommunal_André-Grégoire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2015, le taux d'endettement de l’hôpital est de 90%.
-L'hôpital mutualise certaines activités dont la néphrologie avec le groupe hospitalier intercommunal Le Raincy-Montfermeil et l'urologie avec les hôpitaux Robert-Ballanger d'Aulnay, de Saint-Denis et Avicenne de Bobigny. Le CHI travaille enfin avec l'établissement public de santé mentale de Ville-Evrard[1].
-Depuis 2016, le centre fait partie du groupement hospitalier de territoire Grand Paris Nord Est[1].
+L'hôpital mutualise certaines activités dont la néphrologie avec le groupe hospitalier intercommunal Le Raincy-Montfermeil et l'urologie avec les hôpitaux Robert-Ballanger d'Aulnay, de Saint-Denis et Avicenne de Bobigny. Le CHI travaille enfin avec l'établissement public de santé mentale de Ville-Evrard.
+Depuis 2016, le centre fait partie du groupement hospitalier de territoire Grand Paris Nord Est.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Centre_hospitalier_intercommunal_Andr%C3%A9-Gr%C3%A9goire</t>
+          <t>Centre_hospitalier_intercommunal_André-Grégoire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,14 +559,16 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hôpital a été créé en 1965[2] tenant lieu uniquement de maternité dans un premier temps puis doté d'un bloc opératoire et d'une unité de cardiologie[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hôpital a été créé en 1965 tenant lieu uniquement de maternité dans un premier temps puis doté d'un bloc opératoire et d'une unité de cardiologie.
 En 2012, un nouveau bâtiment est construit, comptant un pôle femme-enfant et un service de réanimation polyvalente.
 La maternité de l'hôpital André-Grégoire de Montreuil a été utilisée comme lieu de tournage de l'émission « Baby boom » sur TF1.
-L’hôpital abrite depuis 2017 une équipe mobile d'accompagnement (EMA) en soins palliatifs[3].
-Une salle de simulation pour former les étudiants en médecine a été aménagé dans l'ancienne maternité en 2018[4] ; puis l'hôpital propose un dépistage systématique du VIH aux futurs pères[5].
-En 2019, l’hôpital est primé par la fondation Hélioscope-GMF pour son carnet des habitudes de vie des patients dans le cadre de l'humanisation des soins[6].
+L’hôpital abrite depuis 2017 une équipe mobile d'accompagnement (EMA) en soins palliatifs.
+Une salle de simulation pour former les étudiants en médecine a été aménagé dans l'ancienne maternité en 2018 ; puis l'hôpital propose un dépistage systématique du VIH aux futurs pères.
+En 2019, l’hôpital est primé par la fondation Hélioscope-GMF pour son carnet des habitudes de vie des patients dans le cadre de l'humanisation des soins.
 </t>
         </is>
       </c>
